--- a/www/IndicatorsPerCountry/Congo_CopperProduction_TerritorialRef_1960_2012_CCode_178.xlsx
+++ b/www/IndicatorsPerCountry/Congo_CopperProduction_TerritorialRef_1960_2012_CCode_178.xlsx
@@ -120,13 +120,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Congo_CopperProduction_TerritorialRef_1960_2012_CCode_178.xlsx
+++ b/www/IndicatorsPerCountry/Congo_CopperProduction_TerritorialRef_1960_2012_CCode_178.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="115">
   <si>
     <t>Country Code</t>
   </si>
@@ -39,58 +39,289 @@
     <t>0</t>
   </si>
   <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>10.1</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>16.2</t>
-  </si>
-  <si>
-    <t>18.3</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>17.2</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>15.2</t>
-  </si>
-  <si>
-    <t>16.5</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8.3</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>436</t>
+  </si>
+  <si>
+    <t>489</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>496</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>482</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>495</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>441</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>46.3</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>29.4</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>34.994</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>20.988</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>59.813</t>
+  </si>
+  <si>
+    <t>73.346</t>
+  </si>
+  <si>
+    <t>93.738</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>600</t>
   </si>
   <si>
     <t>Description</t>
@@ -3336,7 +3567,7 @@
         <v>1911.0</v>
       </c>
       <c r="E186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187">
@@ -3353,7 +3584,7 @@
         <v>1912.0</v>
       </c>
       <c r="E187" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188">
@@ -3370,7 +3601,7 @@
         <v>1913.0</v>
       </c>
       <c r="E188" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189">
@@ -3387,7 +3618,7 @@
         <v>1914.0</v>
       </c>
       <c r="E189" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190">
@@ -3404,7 +3635,7 @@
         <v>1915.0</v>
       </c>
       <c r="E190" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191">
@@ -3421,7 +3652,7 @@
         <v>1916.0</v>
       </c>
       <c r="E191" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192">
@@ -3438,7 +3669,7 @@
         <v>1917.0</v>
       </c>
       <c r="E192" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="193">
@@ -3455,7 +3686,7 @@
         <v>1918.0</v>
       </c>
       <c r="E193" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194">
@@ -3472,7 +3703,7 @@
         <v>1919.0</v>
       </c>
       <c r="E194" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195">
@@ -3489,7 +3720,7 @@
         <v>1920.0</v>
       </c>
       <c r="E195" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="196">
@@ -3506,7 +3737,7 @@
         <v>1921.0</v>
       </c>
       <c r="E196" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197">
@@ -3523,7 +3754,7 @@
         <v>1922.0</v>
       </c>
       <c r="E197" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198">
@@ -3540,7 +3771,7 @@
         <v>1923.0</v>
       </c>
       <c r="E198" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="199">
@@ -3557,7 +3788,7 @@
         <v>1924.0</v>
       </c>
       <c r="E199" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200">
@@ -3574,7 +3805,7 @@
         <v>1925.0</v>
       </c>
       <c r="E200" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="201">
@@ -3591,7 +3822,7 @@
         <v>1926.0</v>
       </c>
       <c r="E201" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="202">
@@ -3608,7 +3839,7 @@
         <v>1927.0</v>
       </c>
       <c r="E202" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="203">
@@ -3625,7 +3856,7 @@
         <v>1928.0</v>
       </c>
       <c r="E203" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204">
@@ -3642,7 +3873,7 @@
         <v>1929.0</v>
       </c>
       <c r="E204" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="205">
@@ -3659,7 +3890,7 @@
         <v>1930.0</v>
       </c>
       <c r="E205" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="206">
@@ -3676,7 +3907,7 @@
         <v>1931.0</v>
       </c>
       <c r="E206" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="207">
@@ -3693,7 +3924,7 @@
         <v>1932.0</v>
       </c>
       <c r="E207" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="208">
@@ -3710,7 +3941,7 @@
         <v>1933.0</v>
       </c>
       <c r="E208" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="209">
@@ -3727,7 +3958,7 @@
         <v>1934.0</v>
       </c>
       <c r="E209" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="210">
@@ -3744,7 +3975,7 @@
         <v>1935.0</v>
       </c>
       <c r="E210" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="211">
@@ -3761,7 +3992,7 @@
         <v>1936.0</v>
       </c>
       <c r="E211" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="212">
@@ -3778,7 +4009,7 @@
         <v>1937.0</v>
       </c>
       <c r="E212" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="213">
@@ -3795,7 +4026,7 @@
         <v>1938.0</v>
       </c>
       <c r="E213" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="214">
@@ -3812,7 +4043,7 @@
         <v>1939.0</v>
       </c>
       <c r="E214" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="215">
@@ -3829,7 +4060,7 @@
         <v>1940.0</v>
       </c>
       <c r="E215" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="216">
@@ -3846,7 +4077,7 @@
         <v>1941.0</v>
       </c>
       <c r="E216" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="217">
@@ -3863,7 +4094,7 @@
         <v>1942.0</v>
       </c>
       <c r="E217" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="218">
@@ -3880,7 +4111,7 @@
         <v>1943.0</v>
       </c>
       <c r="E218" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="219">
@@ -3897,7 +4128,7 @@
         <v>1944.0</v>
       </c>
       <c r="E219" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="220">
@@ -3914,7 +4145,7 @@
         <v>1945.0</v>
       </c>
       <c r="E220" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="221">
@@ -3931,7 +4162,7 @@
         <v>1946.0</v>
       </c>
       <c r="E221" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="222">
@@ -3948,7 +4179,7 @@
         <v>1947.0</v>
       </c>
       <c r="E222" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="223">
@@ -3965,7 +4196,7 @@
         <v>1948.0</v>
       </c>
       <c r="E223" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="224">
@@ -3982,7 +4213,7 @@
         <v>1949.0</v>
       </c>
       <c r="E224" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="225">
@@ -3999,7 +4230,7 @@
         <v>1950.0</v>
       </c>
       <c r="E225" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="226">
@@ -4016,7 +4247,7 @@
         <v>1951.0</v>
       </c>
       <c r="E226" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="227">
@@ -4033,7 +4264,7 @@
         <v>1952.0</v>
       </c>
       <c r="E227" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="228">
@@ -4050,7 +4281,7 @@
         <v>1953.0</v>
       </c>
       <c r="E228" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="229">
@@ -4067,7 +4298,7 @@
         <v>1954.0</v>
       </c>
       <c r="E229" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="230">
@@ -4084,7 +4315,7 @@
         <v>1955.0</v>
       </c>
       <c r="E230" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="231">
@@ -4101,7 +4332,7 @@
         <v>1956.0</v>
       </c>
       <c r="E231" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="232">
@@ -4118,7 +4349,7 @@
         <v>1957.0</v>
       </c>
       <c r="E232" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="233">
@@ -4135,7 +4366,7 @@
         <v>1958.0</v>
       </c>
       <c r="E233" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="234">
@@ -4152,7 +4383,7 @@
         <v>1959.0</v>
       </c>
       <c r="E234" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="235">
@@ -4169,7 +4400,7 @@
         <v>1960.0</v>
       </c>
       <c r="E235" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="236">
@@ -4186,7 +4417,7 @@
         <v>1961.0</v>
       </c>
       <c r="E236" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="237">
@@ -4203,7 +4434,7 @@
         <v>1962.0</v>
       </c>
       <c r="E237" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
     </row>
     <row r="238">
@@ -4220,7 +4451,7 @@
         <v>1963.0</v>
       </c>
       <c r="E238" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="239">
@@ -4237,7 +4468,7 @@
         <v>1964.0</v>
       </c>
       <c r="E239" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="240">
@@ -4254,7 +4485,7 @@
         <v>1965.0</v>
       </c>
       <c r="E240" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="241">
@@ -4271,7 +4502,7 @@
         <v>1966.0</v>
       </c>
       <c r="E241" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="242">
@@ -4288,7 +4519,7 @@
         <v>1967.0</v>
       </c>
       <c r="E242" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="243">
@@ -4305,7 +4536,7 @@
         <v>1968.0</v>
       </c>
       <c r="E243" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="244">
@@ -4322,7 +4553,7 @@
         <v>1969.0</v>
       </c>
       <c r="E244" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="245">
@@ -4339,7 +4570,7 @@
         <v>1970.0</v>
       </c>
       <c r="E245" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
     </row>
     <row r="246">
@@ -4356,7 +4587,7 @@
         <v>1971.0</v>
       </c>
       <c r="E246" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="247">
@@ -4373,7 +4604,7 @@
         <v>1972.0</v>
       </c>
       <c r="E247" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="248">
@@ -4390,7 +4621,7 @@
         <v>1973.0</v>
       </c>
       <c r="E248" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="249">
@@ -4407,7 +4638,7 @@
         <v>1974.0</v>
       </c>
       <c r="E249" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="250">
@@ -4424,7 +4655,7 @@
         <v>1975.0</v>
       </c>
       <c r="E250" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="251">
@@ -4441,7 +4672,7 @@
         <v>1976.0</v>
       </c>
       <c r="E251" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="252">
@@ -4458,7 +4689,7 @@
         <v>1977.0</v>
       </c>
       <c r="E252" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="253">
@@ -4475,7 +4706,7 @@
         <v>1978.0</v>
       </c>
       <c r="E253" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="254">
@@ -4492,7 +4723,7 @@
         <v>1979.0</v>
       </c>
       <c r="E254" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
     </row>
     <row r="255">
@@ -4509,7 +4740,7 @@
         <v>1980.0</v>
       </c>
       <c r="E255" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="256">
@@ -4526,7 +4757,7 @@
         <v>1981.0</v>
       </c>
       <c r="E256" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="257">
@@ -4543,7 +4774,7 @@
         <v>1982.0</v>
       </c>
       <c r="E257" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="258">
@@ -4560,7 +4791,7 @@
         <v>1983.0</v>
       </c>
       <c r="E258" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="259">
@@ -4577,7 +4808,7 @@
         <v>1984.0</v>
       </c>
       <c r="E259" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="260">
@@ -4594,7 +4825,7 @@
         <v>1985.0</v>
       </c>
       <c r="E260" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="261">
@@ -4611,7 +4842,7 @@
         <v>1986.0</v>
       </c>
       <c r="E261" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="262">
@@ -4628,7 +4859,7 @@
         <v>1987.0</v>
       </c>
       <c r="E262" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="263">
@@ -4645,7 +4876,7 @@
         <v>1988.0</v>
       </c>
       <c r="E263" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
     </row>
     <row r="264">
@@ -4662,7 +4893,7 @@
         <v>1989.0</v>
       </c>
       <c r="E264" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="265">
@@ -4679,7 +4910,7 @@
         <v>1990.0</v>
       </c>
       <c r="E265" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="266">
@@ -4696,7 +4927,7 @@
         <v>1991.0</v>
       </c>
       <c r="E266" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="267">
@@ -4713,7 +4944,7 @@
         <v>1992.0</v>
       </c>
       <c r="E267" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="268">
@@ -4730,7 +4961,7 @@
         <v>1993.0</v>
       </c>
       <c r="E268" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="269">
@@ -4747,7 +4978,7 @@
         <v>1994.0</v>
       </c>
       <c r="E269" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="270">
@@ -4764,7 +4995,7 @@
         <v>1995.0</v>
       </c>
       <c r="E270" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
     </row>
     <row r="271">
@@ -4781,7 +5012,7 @@
         <v>1996.0</v>
       </c>
       <c r="E271" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
     <row r="272">
@@ -4798,7 +5029,7 @@
         <v>1997.0</v>
       </c>
       <c r="E272" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
     </row>
     <row r="273">
@@ -4815,7 +5046,7 @@
         <v>1998.0</v>
       </c>
       <c r="E273" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
     </row>
     <row r="274">
@@ -4832,7 +5063,7 @@
         <v>1999.0</v>
       </c>
       <c r="E274" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="275">
@@ -4849,7 +5080,7 @@
         <v>2000.0</v>
       </c>
       <c r="E275" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
     </row>
     <row r="276">
@@ -4866,7 +5097,7 @@
         <v>2001.0</v>
       </c>
       <c r="E276" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
     </row>
     <row r="277">
@@ -4883,7 +5114,7 @@
         <v>2002.0</v>
       </c>
       <c r="E277" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="278">
@@ -4900,7 +5131,7 @@
         <v>2003.0</v>
       </c>
       <c r="E278" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
     </row>
     <row r="279">
@@ -4917,7 +5148,7 @@
         <v>2004.0</v>
       </c>
       <c r="E279" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
     </row>
     <row r="280">
@@ -4934,7 +5165,7 @@
         <v>2005.0</v>
       </c>
       <c r="E280" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
     </row>
     <row r="281">
@@ -4951,7 +5182,7 @@
         <v>2006.0</v>
       </c>
       <c r="E281" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
     </row>
     <row r="282">
@@ -4968,7 +5199,7 @@
         <v>2007.0</v>
       </c>
       <c r="E282" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="283">
@@ -4985,7 +5216,7 @@
         <v>2008.0</v>
       </c>
       <c r="E283" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="284">
@@ -5002,7 +5233,7 @@
         <v>2009.0</v>
       </c>
       <c r="E284" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="285">
@@ -5019,7 +5250,7 @@
         <v>2010.0</v>
       </c>
       <c r="E285" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="286">
@@ -5036,7 +5267,7 @@
         <v>2011.0</v>
       </c>
       <c r="E286" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
     </row>
     <row r="287">
@@ -5053,7 +5284,7 @@
         <v>2012.0</v>
       </c>
       <c r="E287" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -5071,50 +5302,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
